--- a/每日生活时间安排.xlsx
+++ b/每日生活时间安排.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7790"/>
+    <workbookView windowWidth="14640" windowHeight="7790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t xml:space="preserve">          
          时间安排
@@ -81,7 +81,10 @@
     <t>7:10-7:20</t>
   </si>
   <si>
-    <t>7:20-</t>
+    <t>7:20-8:00</t>
+  </si>
+  <si>
+    <t>8:00-8:10</t>
   </si>
   <si>
     <t>完 成 情 况</t>
@@ -119,9 +122,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yy\-mm\-dd"/>
   </numFmts>
@@ -135,6 +138,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -143,21 +160,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -172,7 +174,93 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,91 +275,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -287,31 +290,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,85 +446,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,61 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,30 +705,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,21 +735,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -795,6 +759,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -811,145 +814,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1339,14 +1342,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:Q45"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1357,11 +1360,13 @@
     <col min="4" max="4" width="9.63636363636364" customWidth="1"/>
     <col min="5" max="5" width="9.36363636363636" customWidth="1"/>
     <col min="6" max="6" width="10.3636363636364" customWidth="1"/>
-    <col min="7" max="11" width="9.63636363636364" customWidth="1"/>
+    <col min="7" max="7" width="10.2727272727273" customWidth="1"/>
+    <col min="8" max="11" width="9.63636363636364" customWidth="1"/>
     <col min="12" max="12" width="10.6363636363636" customWidth="1"/>
     <col min="13" max="17" width="9.63636363636364" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="14.75"/>
     <row r="2" ht="22" customHeight="1" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>0</v>
@@ -1500,7 +1505,9 @@
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -1537,7 +1544,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -1559,10 +1566,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1587,7 +1594,7 @@
         <v>43488</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1612,7 +1619,7 @@
         <v>43489</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1637,7 +1644,7 @@
         <v>43490</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1662,7 +1669,7 @@
         <v>43491</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1687,7 +1694,7 @@
         <v>43492</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1712,7 +1719,7 @@
         <v>43493</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1737,7 +1744,7 @@
         <v>43494</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1762,7 +1769,7 @@
         <v>43495</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1787,7 +1794,7 @@
         <v>43496</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1812,7 +1819,7 @@
         <v>43497</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1837,7 +1844,7 @@
         <v>43498</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1862,7 +1869,7 @@
         <v>43499</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1887,7 +1894,7 @@
         <v>43500</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1912,7 +1919,7 @@
         <v>43501</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1937,7 +1944,7 @@
         <v>43502</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1962,7 +1969,7 @@
         <v>43503</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1987,7 +1994,7 @@
         <v>43504</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2012,7 +2019,7 @@
         <v>43505</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2037,7 +2044,7 @@
         <v>43506</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2062,7 +2069,7 @@
         <v>43507</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2087,7 +2094,7 @@
         <v>43508</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2112,7 +2119,7 @@
         <v>43509</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2137,7 +2144,7 @@
         <v>43510</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2162,7 +2169,7 @@
         <v>43511</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2187,7 +2194,7 @@
         <v>43512</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2212,7 +2219,7 @@
         <v>43513</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2237,7 +2244,7 @@
         <v>43514</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2262,7 +2269,7 @@
         <v>43515</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2287,7 +2294,7 @@
         <v>43516</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2312,7 +2319,7 @@
         <v>43517</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2337,7 +2344,7 @@
         <v>43518</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2362,7 +2369,7 @@
         <v>43519</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2387,7 +2394,7 @@
         <v>43520</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2412,7 +2419,7 @@
         <v>43521</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2437,7 +2444,7 @@
         <v>43522</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2462,7 +2469,7 @@
         <v>43523</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2487,7 +2494,7 @@
         <v>43524</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>

--- a/每日生活时间安排.xlsx
+++ b/每日生活时间安排.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
   <si>
     <t xml:space="preserve">          
         时间
@@ -237,6 +237,66 @@
   </si>
   <si>
     <t>√</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8:05 吃饭，8:24吃完上班。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>路上在听喜马拉雅财商音频，有不一样的感悟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班路上，听音频，听到一个很重要的概念：微习惯，决定从今天开始付诸实践。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微习惯4件事：
+1.做5个俯卧撑：实际完成了10个。
+2.看书：trump 2页，一建书籍1页。完成。
+3.扫地一次，完成。
+4.写字50个。实际完成120字，抄写了魔鬼经济学中关于大小办公室的信用问题及农村和城市的犯罪率差异问题。完成。
+总共花费时间在30分钟。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>今日总结
+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.好的习惯是靠依靠好的习惯才能完成，不可以完全依靠意志力。人总会有懈怠的时候。所以必须要一套简单而且可靠的系统，坚持执行，养成习惯。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.由于编辑表格设置表头和吃饭耽误了时间，其间还做了一下白天落下的英语单词125个学习。编程时间预计只能有15分钟。
+2.练习了VUE的编程，v-if，v-bind。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -245,9 +305,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,8 +344,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +396,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -659,52 +751,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -712,23 +788,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -737,50 +796,108 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1063,10 +1180,10 @@
   <dimension ref="A2:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -1082,19 +1199,19 @@
     <col min="12" max="12" width="6.125" customWidth="1"/>
     <col min="13" max="13" width="10.625" customWidth="1"/>
     <col min="14" max="18" width="9.625" customWidth="1"/>
-    <col min="19" max="19" width="6.125" customWidth="1"/>
+    <col min="19" max="19" width="6.25" customWidth="1"/>
     <col min="20" max="20" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="24"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="1">
         <v>1</v>
       </c>
@@ -1140,1344 +1257,1409 @@
       <c r="S2" s="1">
         <v>15</v>
       </c>
-      <c r="T2" s="15">
+      <c r="T2" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="31" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="28" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="2" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="17" t="s">
+      <c r="S4" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="17" t="s">
+      <c r="T4" s="28" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="31" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="S5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="33" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="2" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="R6" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="S6" s="17" t="s">
+      <c r="S6" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="18" t="s">
+      <c r="T6" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="25" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="28"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="24"/>
     </row>
     <row r="8" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>43488</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="37" t="s">
+      <c r="D8" s="38"/>
+      <c r="E8" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="20"/>
+      <c r="G8" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q8" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="R8" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="S8" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="T8" s="44" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>43489</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="37" t="s">
+      <c r="D9" s="38"/>
+      <c r="E9" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="20"/>
+      <c r="G9" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
     </row>
     <row r="10" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>43490</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="37" t="s">
+      <c r="D10" s="38"/>
+      <c r="E10" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="20"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
     </row>
     <row r="11" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>43491</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="20"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
     </row>
     <row r="12" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>5</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>43492</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="20"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
     </row>
     <row r="13" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>43493</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="20"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
     </row>
     <row r="14" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>7</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>43494</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="20"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
     </row>
     <row r="15" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>8</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>43495</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="20"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
     </row>
     <row r="16" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>9</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>43496</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="20"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
     </row>
     <row r="17" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>10</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>43497</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="20"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
     </row>
     <row r="18" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>11</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>43498</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="20"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
     </row>
     <row r="19" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>12</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>43499</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="20"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
     </row>
     <row r="20" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>13</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <v>43500</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="20"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
     </row>
     <row r="21" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>14</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>43501</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="20"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
     </row>
     <row r="22" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>15</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>43502</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="20"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
     </row>
     <row r="23" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>16</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="4">
         <v>43503</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="20"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
     </row>
     <row r="24" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>17</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <v>43504</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="20"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
     </row>
     <row r="25" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>18</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <v>43505</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="20"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
     </row>
     <row r="26" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>19</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>43506</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="20"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
     </row>
     <row r="27" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>20</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="4">
         <v>43507</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="20"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
     </row>
     <row r="28" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>21</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="4">
         <v>43508</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="20"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
     </row>
     <row r="29" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A29" s="4">
+      <c r="A29" s="2">
         <v>22</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="4">
         <v>43509</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="20"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
     </row>
     <row r="30" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <v>23</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="4">
         <v>43510</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="20"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
     </row>
     <row r="31" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>24</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="4">
         <v>43511</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="20"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
     </row>
     <row r="32" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>25</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="4">
         <v>43512</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="20"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
     </row>
     <row r="33" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <v>26</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="4">
         <v>43513</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="20"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
     </row>
     <row r="34" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>27</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="4">
         <v>43514</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="20"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
     </row>
     <row r="35" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>28</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="4">
         <v>43515</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="20"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
     </row>
     <row r="36" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>29</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="4">
         <v>43516</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="20"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
     </row>
     <row r="37" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A37" s="4">
+      <c r="A37" s="2">
         <v>30</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="4">
         <v>43517</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="20"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
     </row>
     <row r="38" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A38" s="4">
+      <c r="A38" s="2">
         <v>31</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="4">
         <v>43518</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="20"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
     </row>
     <row r="39" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A39" s="4">
+      <c r="A39" s="2">
         <v>32</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="4">
         <v>43519</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="20"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
     </row>
     <row r="40" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A40" s="4">
+      <c r="A40" s="2">
         <v>33</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="4">
         <v>43520</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="20"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
     </row>
     <row r="41" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A41" s="4">
+      <c r="A41" s="2">
         <v>34</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="4">
         <v>43521</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="20"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
     </row>
     <row r="42" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A42" s="4">
+      <c r="A42" s="2">
         <v>35</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="4">
         <v>43522</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="20"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
     </row>
     <row r="43" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A43" s="4">
+      <c r="A43" s="2">
         <v>36</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="4">
         <v>43523</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="20"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
     </row>
     <row r="44" spans="1:20" ht="27.95" customHeight="1">
-      <c r="A44" s="9">
+      <c r="A44" s="6">
         <v>37</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="7">
         <v>43524</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="22"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="12"/>
     </row>
   </sheetData>
   <sheetProtection password="CF7A" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="43">
-    <mergeCell ref="A2:B6"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A2:B6"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
@@ -2489,27 +2671,6 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/每日生活时间安排.xlsx
+++ b/每日生活时间安排.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
   <si>
     <t xml:space="preserve">          
         时间
@@ -249,15 +249,6 @@
   </si>
   <si>
     <t>下班路上，听音频，听到一个很重要的概念：微习惯，决定从今天开始付诸实践。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>微习惯4件事：
-1.做5个俯卧撑：实际完成了10个。
-2.看书：trump 2页，一建书籍1页。完成。
-3.扫地一次，完成。
-4.写字50个。实际完成120字，抄写了魔鬼经济学中关于大小办公室的信用问题及农村和城市的犯罪率差异问题。完成。
-总共花费时间在30分钟。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -297,6 +288,43 @@
   <si>
     <t>1.由于编辑表格设置表头和吃饭耽误了时间，其间还做了一下白天落下的英语单词125个学习。编程时间预计只能有15分钟。
 2.练习了VUE的编程，v-if，v-bind。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>看书：电子书籍，《一本书读懂财务报表》，作者清华大学毕业，简明扼要的阐述了对于财务相关的知识的含义。看了一部分，主要了解了财务报表的含义，主要包含哪些内容。公司的资产部分，主要包含流动资产和非流动资产。流动资产又包含的内容。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>娱乐时间：
+1.《知否》第49集，盛明兰的机智与聪慧，此集主要讲了顾家四、五房在央求明兰帮助，以及关于顾廷烨如何智取太后手中的玉玺。总体来说，这部电视剧还是给人很多启发的。不过，从明兰与顾二结婚后，剧情有点拖沓，而且出场的任务顺序有点混乱，之前的熟面孔基本上很少出现了。比如盛家大娘子。不知道后面剧情走向，还有20多集。后续再关注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.财商录音。
+下班听了微习惯，回来继续听，微习惯需要执行，效果有待考察。
+2.第二概念是刻意练习，表达的观念是：天赋不是不可以逾越的，从正反两个方面阐述了刻意练习的科学意义，与之前路骋的《听得懂的商学课》里的一章不谋而合。刻意练习就是不要让所谓的先天因素羁绊自己，有些能力是可以通过练习获取的。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微习惯4件事：
+1.做5个俯卧撑：实际完成了10个。
+2.看书：trump 2页，一建书籍1页。完成。
+3.扫地一次，完成。
+4.写字50个。实际完成120字，抄写了魔鬼经济学中关于大小办公室的信用问题及农村和城市的犯罪率差异问题。完成。
+总共花费时间在30分钟。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>又听了一会录音，整理文档，陪宝宝玩。继续将未做完的英语单词测试做完，125单词，错误2个，正确率99%。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日总结：
+1.工作方面按照计划进行，有规划才能充实。
+2.发现时间如果没有效率，就会从中间哗哗的流淌而不知去处，只有做好了规划，才知道每天有那么的时间可以安排，可以最大化的利用。
+3.今天得到一个重要的概念，微习惯，是一个可以快乐的慢慢养成习惯的方法。从今天开始实施，相信可以有很好的效果
+4.加深了另一个概念：可以练习，的确是个好的方法，不要迷信天赋的权威望而却步，通过练习一样可以很牛。
+5.明天需要早起，去公司早一点,有安全局的人来公司考察。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -796,45 +824,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -844,12 +833,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -859,20 +842,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -882,12 +856,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -899,6 +867,66 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,7 +1211,7 @@
       <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -1204,14 +1232,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="1">
         <v>1</v>
       </c>
@@ -1262,230 +1290,230 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="25" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="O3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="P3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="Q3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="R3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="28" t="s">
+      <c r="T3" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="26" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="N4" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="O4" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="27" t="s">
+      <c r="P4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="R4" s="27" t="s">
+      <c r="R4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="28" t="s">
+      <c r="S4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="28" t="s">
+      <c r="T4" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="30" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="N5" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="32" t="s">
+      <c r="O5" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="Q5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="R5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="33" t="s">
+      <c r="S5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="T5" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="31" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="N6" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="O6" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="P6" s="35" t="s">
+      <c r="P6" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="Q6" s="35" t="s">
+      <c r="Q6" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="R6" s="32" t="s">
+      <c r="R6" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="S6" s="33" t="s">
+      <c r="S6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="36" t="s">
+      <c r="T6" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1496,28 +1524,28 @@
       <c r="B7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="24"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="31"/>
     </row>
     <row r="8" spans="1:20" ht="27.95" customHeight="1">
       <c r="A8" s="2">
@@ -1526,57 +1554,57 @@
       <c r="B8" s="4">
         <v>43488</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="L8" s="39" t="s">
+      <c r="N8" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="S8" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="39" t="s">
+      <c r="T8" s="24" t="s">
         <v>75</v>
-      </c>
-      <c r="N8" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="O8" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="P8" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q8" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="R8" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="S8" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="T8" s="44" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="27.95" customHeight="1">
@@ -1586,46 +1614,58 @@
       <c r="B9" s="4">
         <v>43489</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J9" s="44" t="s">
+      <c r="J9" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="44" t="s">
+      <c r="K9" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="M9" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="N9" s="44" t="s">
+      <c r="M9" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
+      <c r="P9" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="R9" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="T9" s="22" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="10" spans="1:20" ht="27.95" customHeight="1">
       <c r="A10" s="2">
@@ -1634,30 +1674,30 @@
       <c r="B10" s="4">
         <v>43490</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39" t="s">
+      <c r="D10" s="33"/>
+      <c r="E10" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
     </row>
     <row r="11" spans="1:20" ht="27.95" customHeight="1">
       <c r="A11" s="2">
@@ -1666,30 +1706,30 @@
       <c r="B11" s="4">
         <v>43491</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
     </row>
     <row r="12" spans="1:20" ht="27.95" customHeight="1">
       <c r="A12" s="2">
@@ -1698,30 +1738,30 @@
       <c r="B12" s="4">
         <v>43492</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="45" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
     </row>
     <row r="13" spans="1:20" ht="27.95" customHeight="1">
       <c r="A13" s="2">
@@ -1730,30 +1770,30 @@
       <c r="B13" s="4">
         <v>43493</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
     </row>
     <row r="14" spans="1:20" ht="27.95" customHeight="1">
       <c r="A14" s="2">
@@ -1762,28 +1802,28 @@
       <c r="B14" s="4">
         <v>43494</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
     </row>
     <row r="15" spans="1:20" ht="27.95" customHeight="1">
       <c r="A15" s="2">
@@ -1792,26 +1832,26 @@
       <c r="B15" s="4">
         <v>43495</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
     </row>
     <row r="16" spans="1:20" ht="27.95" customHeight="1">
       <c r="A16" s="2">
@@ -1820,26 +1860,26 @@
       <c r="B16" s="4">
         <v>43496</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
     </row>
     <row r="17" spans="1:20" ht="27.95" customHeight="1">
       <c r="A17" s="2">
@@ -1848,26 +1888,26 @@
       <c r="B17" s="4">
         <v>43497</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
     </row>
     <row r="18" spans="1:20" ht="27.95" customHeight="1">
       <c r="A18" s="2">
@@ -1876,26 +1916,26 @@
       <c r="B18" s="4">
         <v>43498</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
     </row>
     <row r="19" spans="1:20" ht="27.95" customHeight="1">
       <c r="A19" s="2">
@@ -1904,26 +1944,26 @@
       <c r="B19" s="4">
         <v>43499</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
     </row>
     <row r="20" spans="1:20" ht="27.95" customHeight="1">
       <c r="A20" s="2">
@@ -1932,26 +1972,26 @@
       <c r="B20" s="4">
         <v>43500</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
     </row>
     <row r="21" spans="1:20" ht="27.95" customHeight="1">
       <c r="A21" s="2">
@@ -1960,26 +2000,26 @@
       <c r="B21" s="4">
         <v>43501</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
     </row>
     <row r="22" spans="1:20" ht="27.95" customHeight="1">
       <c r="A22" s="2">
@@ -1988,26 +2028,26 @@
       <c r="B22" s="4">
         <v>43502</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
     </row>
     <row r="23" spans="1:20" ht="27.95" customHeight="1">
       <c r="A23" s="2">
@@ -2016,26 +2056,26 @@
       <c r="B23" s="4">
         <v>43503</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
     </row>
     <row r="24" spans="1:20" ht="27.95" customHeight="1">
       <c r="A24" s="2">
@@ -2044,26 +2084,26 @@
       <c r="B24" s="4">
         <v>43504</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
     </row>
     <row r="25" spans="1:20" ht="27.95" customHeight="1">
       <c r="A25" s="2">
@@ -2072,10 +2112,10 @@
       <c r="B25" s="4">
         <v>43505</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="18"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -2100,10 +2140,10 @@
       <c r="B26" s="4">
         <v>43506</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="18"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -2128,10 +2168,10 @@
       <c r="B27" s="4">
         <v>43507</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="18"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -2156,10 +2196,10 @@
       <c r="B28" s="4">
         <v>43508</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="18"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -2184,10 +2224,10 @@
       <c r="B29" s="4">
         <v>43509</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="18"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -2212,10 +2252,10 @@
       <c r="B30" s="4">
         <v>43510</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="18"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -2240,10 +2280,10 @@
       <c r="B31" s="4">
         <v>43511</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -2268,10 +2308,10 @@
       <c r="B32" s="4">
         <v>43512</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -2296,10 +2336,10 @@
       <c r="B33" s="4">
         <v>43513</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="18"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -2324,10 +2364,10 @@
       <c r="B34" s="4">
         <v>43514</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="29"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -2352,10 +2392,10 @@
       <c r="B35" s="4">
         <v>43515</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -2380,10 +2420,10 @@
       <c r="B36" s="4">
         <v>43516</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -2408,10 +2448,10 @@
       <c r="B37" s="4">
         <v>43517</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="18"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -2436,10 +2476,10 @@
       <c r="B38" s="4">
         <v>43518</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="18"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -2464,10 +2504,10 @@
       <c r="B39" s="4">
         <v>43519</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="18"/>
+      <c r="D39" s="29"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -2492,10 +2532,10 @@
       <c r="B40" s="4">
         <v>43520</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="18"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -2520,10 +2560,10 @@
       <c r="B41" s="4">
         <v>43521</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="18"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -2548,10 +2588,10 @@
       <c r="B42" s="4">
         <v>43522</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -2576,10 +2616,10 @@
       <c r="B43" s="4">
         <v>43523</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="18"/>
+      <c r="D43" s="29"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -2604,10 +2644,10 @@
       <c r="B44" s="7">
         <v>43524</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="20"/>
+      <c r="D44" s="41"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -2628,33 +2668,6 @@
   </sheetData>
   <sheetProtection password="CF7A" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="43">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
     <mergeCell ref="A2:B6"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
@@ -2671,6 +2684,33 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/每日生活时间安排.xlsx
+++ b/每日生活时间安排.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="94">
   <si>
     <t xml:space="preserve">          
         时间
@@ -265,6 +265,95 @@
   </si>
   <si>
     <t>×</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.由于编辑表格设置表头和吃饭耽误了时间，其间还做了一下白天落下的英语单词125个学习。编程时间预计只能有15分钟。
+2.练习了VUE的编程，v-if，v-bind。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>看书：电子书籍，《一本书读懂财务报表》，作者清华大学毕业，简明扼要的阐述了对于财务相关的知识的含义。看了一部分，主要了解了财务报表的含义，主要包含哪些内容。公司的资产部分，主要包含流动资产和非流动资产。流动资产又包含的内容。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>娱乐时间：
+1.《知否》第49集，盛明兰的机智与聪慧，此集主要讲了顾家四、五房在央求明兰帮助，以及关于顾廷烨如何智取太后手中的玉玺。总体来说，这部电视剧还是给人很多启发的。不过，从明兰与顾二结婚后，剧情有点拖沓，而且出场的任务顺序有点混乱，之前的熟面孔基本上很少出现了。比如盛家大娘子。不知道后面剧情走向，还有20多集。后续再关注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.财商录音。
+下班听了微习惯，回来继续听，微习惯需要执行，效果有待考察。
+2.第二概念是刻意练习，表达的观念是：天赋不是不可以逾越的，从正反两个方面阐述了刻意练习的科学意义，与之前路骋的《听得懂的商学课》里的一章不谋而合。刻意练习就是不要让所谓的先天因素羁绊自己，有些能力是可以通过练习获取的。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微习惯4件事：
+1.做5个俯卧撑：实际完成了10个。
+2.看书：trump 2页，一建书籍1页。完成。
+3.扫地一次，完成。
+4.写字50个。实际完成120字，抄写了魔鬼经济学中关于大小办公室的信用问题及农村和城市的犯罪率差异问题。完成。
+总共花费时间在30分钟。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>又听了一会录音，整理文档，陪宝宝玩。继续将未做完的英语单词测试做完，125单词，错误2个，正确率99%。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日总结：
+1.工作方面按照计划进行，有规划才能充实。
+2.发现时间如果没有效率，就会从中间哗哗的流淌而不知去处，只有做好了规划，才知道每天有那么的时间可以安排，可以最大化的利用。
+3.今天得到一个重要的概念，微习惯，是一个可以快乐的慢慢养成习惯的方法。从今天开始实施，相信可以有很好的效果
+4.加深了另一个概念：可以练习，的确是个好的方法，不要迷信天赋的权威望而却步，通过练习一样可以很牛。
+5.明天需要早起，去公司早一点,有安全局的人来公司考察。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.早上7:30起床，未按照计划起床。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.早上7:30起床，未按照计划起床。吃完早饭，8:00出发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.上班路上继续听音频，感觉最近听的这个课程真的很好，值得推荐。在路上听了刻意练习的延伸。有些内容还是需要反复的听和琢磨。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.下班路依旧听音频，人都是需要为自己的行为负责任的。今天的我是昨天的观念的产物。而今天得想法又将决定我们将来会走的多远。
+2.关于what，how，why的辩论。大部分人只能会关注what。而how和why才是最重要的。
+3.孩子的教育培养，需要先从自己的行为做起。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.今天 18:30到家。稍作休息进行微习惯训练。首先读了trump的书，读了两张半，了解trump作为商人的精明和睿智。每天的忙碌，同时，他本人也是一位可爱可敬的总统。Huge respect。又看了一页半建筑实务，了解了沥青路面的材料和结构组成，联想到平时生活可见的路面。再写了100多字的总结，抒发了这两天的感受。最后做了20个俯卧撑，扫地。四件事都完成了。总共花了40分钟。再后来吃饭休息，编写文字。还剩10多分钟，准备进入下一阶段。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日总结
+1.今天早上真的起迟了，发现早起的确不是一件容易的事，按照微习惯的原则，不可以一步到位，增加难度，完全靠意志力不是靠谱的。人的大脑天生具有惰性，这是一场自己同自己大脑的战争。加油，明天7:20起床。从今天起，每天比前一天早5分。给大脑一个过渡期。
+2.学会从人性出发，从实际出发，理解大脑的运行机制。
+3.今天有安全局的人来公司考察，对于公司的远期发展，感觉不是很明朗。但是，荣总的确是一位很具有魅力的领导。我要做的就是把本职做好，技术和业务的提高。
+4.听音频学到的知识和概念，需要不断内化。孩子的教育，看问题的角度和深度，需要不断的提高有优化。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.编程，Vue框架语法学习。V-bind,v-for,v-on,v-model。绑定效应。2.感觉还是需要结合相关的项目，一起来使用才会有效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>看书：电子书《记忆传承人》，类似于理想国的状态，描述了一个世外的世界。《你所谓的稳定不过是浪费生命》，通过讲述自己的故事，别人的故事，阐述各种不同的人生。但是，作者鼓励的还是不要贪图稳定，要尝试多种可能性。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>娱乐时间：
+1.《知否》第50集。主线还是顾家长辈乞求顾二救人，当廷烨提出条件后，矛头直顾大郎，而方向转变后，大房，四房，五房自私的嘴脸，表露无遗。而顾大得知自己时间不多的时候的转变，也让人刮目相看。这集平淡中突显人性的本质。人性中的善良最终会激发出来的。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.英语单词125，学习和测试。剩余自由安排。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -286,45 +375,9 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.由于编辑表格设置表头和吃饭耽误了时间，其间还做了一下白天落下的英语单词125个学习。编程时间预计只能有15分钟。
-2.练习了VUE的编程，v-if，v-bind。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>看书：电子书籍，《一本书读懂财务报表》，作者清华大学毕业，简明扼要的阐述了对于财务相关的知识的含义。看了一部分，主要了解了财务报表的含义，主要包含哪些内容。公司的资产部分，主要包含流动资产和非流动资产。流动资产又包含的内容。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>娱乐时间：
-1.《知否》第49集，盛明兰的机智与聪慧，此集主要讲了顾家四、五房在央求明兰帮助，以及关于顾廷烨如何智取太后手中的玉玺。总体来说，这部电视剧还是给人很多启发的。不过，从明兰与顾二结婚后，剧情有点拖沓，而且出场的任务顺序有点混乱，之前的熟面孔基本上很少出现了。比如盛家大娘子。不知道后面剧情走向，还有20多集。后续再关注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.财商录音。
-下班听了微习惯，回来继续听，微习惯需要执行，效果有待考察。
-2.第二概念是刻意练习，表达的观念是：天赋不是不可以逾越的，从正反两个方面阐述了刻意练习的科学意义，与之前路骋的《听得懂的商学课》里的一章不谋而合。刻意练习就是不要让所谓的先天因素羁绊自己，有些能力是可以通过练习获取的。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>微习惯4件事：
-1.做5个俯卧撑：实际完成了10个。
-2.看书：trump 2页，一建书籍1页。完成。
-3.扫地一次，完成。
-4.写字50个。实际完成120字，抄写了魔鬼经济学中关于大小办公室的信用问题及农村和城市的犯罪率差异问题。完成。
-总共花费时间在30分钟。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>又听了一会录音，整理文档，陪宝宝玩。继续将未做完的英语单词测试做完，125单词，错误2个，正确率99%。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日总结：
-1.工作方面按照计划进行，有规划才能充实。
-2.发现时间如果没有效率，就会从中间哗哗的流淌而不知去处，只有做好了规划，才知道每天有那么的时间可以安排，可以最大化的利用。
-3.今天得到一个重要的概念，微习惯，是一个可以快乐的慢慢养成习惯的方法。从今天开始实施，相信可以有很好的效果
-4.加深了另一个概念：可以练习，的确是个好的方法，不要迷信天赋的权威望而却步，通过练习一样可以很牛。
-5.明天需要早起，去公司早一点,有安全局的人来公司考察。</t>
+    <t>1.财商音频。
+你的梦想必须要定高一点。人们不成功的原因。特朗普专场，真的受益匪浅，财务自由的目标，可以成为自己可以实现的目标。
+2.思考什么样的事情是自己想做的，自己到底想要什么，选择自己人生的战场。去战斗。真正的自己书写自己的人生剧本。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -868,30 +921,54 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -903,30 +980,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1208,10 +1261,10 @@
   <dimension ref="A2:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -1232,14 +1285,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="1">
         <v>1</v>
       </c>
@@ -1290,9 +1343,9 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="34" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="42" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -1348,9 +1401,9 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="35"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="13" t="s">
         <v>19</v>
       </c>
@@ -1404,9 +1457,9 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="36" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="44" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="16" t="s">
@@ -1462,9 +1515,9 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="16" t="s">
         <v>19</v>
       </c>
@@ -1524,28 +1577,28 @@
       <c r="B7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="28" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="31"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="41"/>
     </row>
     <row r="8" spans="1:20" ht="27.95" customHeight="1">
       <c r="A8" s="2">
@@ -1604,7 +1657,7 @@
         <v>67</v>
       </c>
       <c r="T8" s="24" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="27.95" customHeight="1">
@@ -1643,28 +1696,28 @@
         <v>70</v>
       </c>
       <c r="M9" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="R9" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q9" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="R9" s="22" t="s">
-        <v>81</v>
       </c>
       <c r="S9" s="21" t="s">
         <v>67</v>
       </c>
       <c r="T9" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="27.95" customHeight="1">
@@ -1682,22 +1735,50 @@
         <v>67</v>
       </c>
       <c r="F10" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
+      <c r="L10" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="T10" s="22" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="27.95" customHeight="1">
       <c r="A11" s="2">
@@ -1706,15 +1787,15 @@
       <c r="B11" s="4">
         <v>43491</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="25" t="s">
         <v>71</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
@@ -1738,10 +1819,10 @@
       <c r="B12" s="4">
         <v>43492</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="39"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="25" t="s">
         <v>71</v>
       </c>
@@ -1774,11 +1855,11 @@
         <v>49</v>
       </c>
       <c r="D13" s="33"/>
-      <c r="E13" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>71</v>
+      <c r="E13" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
@@ -1806,10 +1887,12 @@
         <v>50</v>
       </c>
       <c r="D14" s="33"/>
-      <c r="E14" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="22"/>
+      <c r="E14" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
@@ -1836,8 +1919,12 @@
         <v>44</v>
       </c>
       <c r="D15" s="33"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
+      <c r="E15" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
@@ -1864,8 +1951,12 @@
         <v>45</v>
       </c>
       <c r="D16" s="33"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -1892,8 +1983,12 @@
         <v>46</v>
       </c>
       <c r="D17" s="33"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
+      <c r="E17" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
@@ -1916,10 +2011,10 @@
       <c r="B18" s="4">
         <v>43498</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="39"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
@@ -1944,10 +2039,10 @@
       <c r="B19" s="4">
         <v>43499</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="39"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
@@ -2112,10 +2207,10 @@
       <c r="B25" s="4">
         <v>43505</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="29"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -2140,10 +2235,10 @@
       <c r="B26" s="4">
         <v>43506</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -2168,10 +2263,10 @@
       <c r="B27" s="4">
         <v>43507</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="29"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -2196,10 +2291,10 @@
       <c r="B28" s="4">
         <v>43508</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="29"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -2224,10 +2319,10 @@
       <c r="B29" s="4">
         <v>43509</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="29"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -2252,10 +2347,10 @@
       <c r="B30" s="4">
         <v>43510</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="29"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -2280,10 +2375,10 @@
       <c r="B31" s="4">
         <v>43511</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="29"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -2308,10 +2403,10 @@
       <c r="B32" s="4">
         <v>43512</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="29"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -2336,10 +2431,10 @@
       <c r="B33" s="4">
         <v>43513</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="29"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -2364,10 +2459,10 @@
       <c r="B34" s="4">
         <v>43514</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="29"/>
+      <c r="D34" s="31"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -2392,10 +2487,10 @@
       <c r="B35" s="4">
         <v>43515</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="29"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -2420,10 +2515,10 @@
       <c r="B36" s="4">
         <v>43516</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="29"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -2448,10 +2543,10 @@
       <c r="B37" s="4">
         <v>43517</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="29"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -2476,10 +2571,10 @@
       <c r="B38" s="4">
         <v>43518</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="29"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -2504,10 +2599,10 @@
       <c r="B39" s="4">
         <v>43519</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="29"/>
+      <c r="D39" s="31"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -2532,10 +2627,10 @@
       <c r="B40" s="4">
         <v>43520</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="29"/>
+      <c r="D40" s="31"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -2560,10 +2655,10 @@
       <c r="B41" s="4">
         <v>43521</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="29"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -2588,10 +2683,10 @@
       <c r="B42" s="4">
         <v>43522</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="29"/>
+      <c r="D42" s="31"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -2616,10 +2711,10 @@
       <c r="B43" s="4">
         <v>43523</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="29"/>
+      <c r="D43" s="31"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -2644,10 +2739,10 @@
       <c r="B44" s="7">
         <v>43524</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="41"/>
+      <c r="D44" s="35"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -2668,6 +2763,33 @@
   </sheetData>
   <sheetProtection password="CF7A" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="43">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="A2:B6"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
@@ -2684,33 +2806,6 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/每日生活时间安排.xlsx
+++ b/每日生活时间安排.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t xml:space="preserve">          
         时间
@@ -320,17 +320,20 @@
   <si>
     <t>二</t>
   </si>
+  <si>
+    <t>1.今天上班第一天，新的一年，迎接更多的挑战和困难，相信自己可以变得更强大。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yy\-mm\-dd"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yy\-mm\-dd"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -363,13 +366,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -377,9 +373,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,14 +382,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -415,8 +402,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,21 +465,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,31 +489,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,8 +502,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,7 +573,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,19 +693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,43 +705,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,103 +735,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,17 +1065,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1101,6 +1079,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,35 +1124,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1186,10 +1170,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1198,137 +1182,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1445,10 +1429,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1804,11 +1784,11 @@
   <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="H27" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T12" sqref="T12"/>
+      <selection pane="bottomRight" activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14"/>
@@ -1883,7 +1863,7 @@
       <c r="S2" s="5">
         <v>15</v>
       </c>
-      <c r="T2" s="39">
+      <c r="T2" s="38">
         <v>16</v>
       </c>
     </row>
@@ -1938,10 +1918,10 @@
       <c r="R3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="40" t="s">
+      <c r="S3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="40" t="s">
+      <c r="T3" s="39" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1994,10 +1974,10 @@
       <c r="R4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="40" t="s">
+      <c r="S4" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="40" t="s">
+      <c r="T4" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2052,10 +2032,10 @@
       <c r="R5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="41" t="s">
+      <c r="S5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="41" t="s">
+      <c r="T5" s="40" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2108,10 +2088,10 @@
       <c r="R6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="41" t="s">
+      <c r="S6" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="T6" s="42" t="s">
+      <c r="T6" s="41" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2143,7 +2123,7 @@
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>
-      <c r="T7" s="43"/>
+      <c r="T7" s="42"/>
     </row>
     <row r="8" ht="27.95" customHeight="1" spans="1:20">
       <c r="A8" s="16">
@@ -2201,7 +2181,7 @@
       <c r="S8" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="T8" s="37" t="s">
+      <c r="T8" s="25" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2228,22 +2208,22 @@
       <c r="H9" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="25" t="s">
         <v>61</v>
       </c>
       <c r="K9" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="37" t="s">
+      <c r="M9" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N9" s="25" t="s">
         <v>64</v>
       </c>
       <c r="O9" s="25" t="s">
@@ -2913,7 +2893,9 @@
       <c r="Q30" s="30"/>
       <c r="R30" s="30"/>
       <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
+      <c r="T30" s="30" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="31" ht="27.95" customHeight="1" spans="1:20">
       <c r="A31" s="16">
@@ -3298,14 +3280,14 @@
       <c r="J44" s="35"/>
       <c r="K44" s="35"/>
       <c r="L44" s="35"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
       <c r="O44" s="35"/>
       <c r="P44" s="35"/>
       <c r="Q44" s="35"/>
       <c r="R44" s="35"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="45"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="44"/>
     </row>
   </sheetData>
   <sheetProtection password="CF7A" sheet="1" selectLockedCells="1" objects="1" scenarios="1"/>

--- a/每日生活时间安排.xlsx
+++ b/每日生活时间安排.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t xml:space="preserve">          
         时间
@@ -323,6 +323,9 @@
   <si>
     <t>1.今天上班第一天，新的一年，迎接更多的挑战和困难，相信自己可以变得更强大。</t>
   </si>
+  <si>
+    <t>1.工作日，现在可以看到很多自己的想法，可以成为自己内心的想法和作为。</t>
+  </si>
 </sst>
 </file>
 
@@ -330,8 +333,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yy\-mm\-dd"/>
   </numFmts>
@@ -367,7 +370,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,90 +399,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,7 +423,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,6 +463,44 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,7 +576,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,7 +618,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,79 +708,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,19 +720,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,31 +738,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,11 +1077,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1133,21 +1142,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1162,6 +1156,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1170,10 +1173,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1182,97 +1185,121 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1281,34 +1308,10 @@
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1788,7 +1791,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T31" sqref="T31"/>
+      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14"/>
@@ -2923,7 +2926,9 @@
       <c r="Q31" s="30"/>
       <c r="R31" s="30"/>
       <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
+      <c r="T31" s="30" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="32" ht="27.95" customHeight="1" spans="1:20">
       <c r="A32" s="16">

--- a/每日生活时间安排.xlsx
+++ b/每日生活时间安排.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="7790"/>
+    <workbookView xWindow="9270" windowWidth="9270" windowHeight="7790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表分析" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
   <si>
     <t xml:space="preserve">          
         时间
@@ -326,17 +328,65 @@
   <si>
     <t>1.工作日，现在可以看到很多自己的想法，可以成为自己内心的想法和作为。</t>
   </si>
+  <si>
+    <t>00:00-5:30</t>
+  </si>
+  <si>
+    <t>5:30-5:50</t>
+  </si>
+  <si>
+    <t>5:50-6:20</t>
+  </si>
+  <si>
+    <t>6:20-6:50</t>
+  </si>
+  <si>
+    <t>7:00-8:00</t>
+  </si>
+  <si>
+    <t>8:00-17:30</t>
+  </si>
+  <si>
+    <t>17:30-19:00</t>
+  </si>
+  <si>
+    <t>烧水、刷牙、洗脸</t>
+  </si>
+  <si>
+    <t>做饭</t>
+  </si>
+  <si>
+    <t>上班</t>
+  </si>
+  <si>
+    <t>休息（节假日）</t>
+  </si>
+  <si>
+    <t>过年</t>
+  </si>
+  <si>
+    <t>工作</t>
+  </si>
+  <si>
+    <t>烧水、洗脸、刷牙</t>
+  </si>
+  <si>
+    <t>上班（路上）</t>
+  </si>
+  <si>
+    <t>下班（路上）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yy\-mm\-dd"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yy\-mm\-dd"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -369,8 +419,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,8 +455,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,15 +533,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,10 +548,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -437,89 +563,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,7 +620,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,19 +680,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,61 +704,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,43 +734,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,13 +764,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,36 +1010,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1013,6 +1039,21 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -1068,11 +1109,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,6 +1134,54 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1109,30 +1204,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1142,26 +1213,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,151 +1229,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1353,7 +1412,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1362,7 +1421,7 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1387,21 +1446,83 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1410,55 +1531,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1534,7 +1611,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1786,12 +1863,12 @@
   <sheetPr/>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="H27" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14"/>
@@ -1813,1486 +1890,1486 @@
   <sheetData>
     <row r="1" ht="14.75"/>
     <row r="2" ht="21.95" customHeight="1" spans="1:20">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5">
+      <c r="D2" s="5"/>
+      <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>2</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <v>3</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>4</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="6">
         <v>5</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="6">
         <v>6</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="6">
         <v>7</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="6">
         <v>8</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="6">
         <v>9</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="6">
         <v>10</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="6">
         <v>11</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="6">
         <v>12</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="6">
         <v>13</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="6">
         <v>14</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="6">
         <v>15</v>
       </c>
-      <c r="T2" s="38">
+      <c r="T2" s="37">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="21.95" customHeight="1" spans="1:20">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="39" t="s">
+      <c r="S3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="39" t="s">
+      <c r="T3" s="38" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" ht="21.95" customHeight="1" spans="1:20">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="9" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="39" t="s">
+      <c r="S4" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="39" t="s">
+      <c r="T4" s="38" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" ht="21.95" customHeight="1" spans="1:20">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="40" t="s">
+      <c r="S5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="40" t="s">
+      <c r="T5" s="39" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" ht="21.95" customHeight="1" spans="1:20">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="13" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="36" t="s">
+      <c r="P6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="36" t="s">
+      <c r="Q6" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="40" t="s">
+      <c r="S6" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="T6" s="41" t="s">
+      <c r="T6" s="40" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="18" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="42"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="41"/>
     </row>
     <row r="8" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A8" s="16">
+      <c r="A8" s="17">
         <v>1</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="22">
         <v>43488</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="24" t="s">
+      <c r="M8" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="24" t="s">
+      <c r="N8" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="24" t="s">
+      <c r="O8" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="24" t="s">
+      <c r="P8" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="Q8" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="R8" s="24" t="s">
+      <c r="R8" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="S8" s="24" t="s">
+      <c r="S8" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="T8" s="25" t="s">
+      <c r="T8" s="46" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A9" s="16">
+      <c r="A9" s="17">
         <v>2</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="22">
         <v>43489</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="M9" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="25" t="s">
+      <c r="N9" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="O9" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="P9" s="25" t="s">
+      <c r="P9" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="Q9" s="25" t="s">
+      <c r="Q9" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="R9" s="25" t="s">
+      <c r="R9" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="S9" s="24" t="s">
+      <c r="S9" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="T9" s="25" t="s">
+      <c r="T9" s="46" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A10" s="16">
+      <c r="A10" s="17">
         <v>3</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="22">
         <v>43490</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="L10" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="M10" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="25" t="s">
+      <c r="N10" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="O10" s="25" t="s">
+      <c r="O10" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="P10" s="25" t="s">
+      <c r="P10" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="Q10" s="25" t="s">
+      <c r="Q10" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="R10" s="25" t="s">
+      <c r="R10" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="S10" s="24" t="s">
+      <c r="S10" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="T10" s="25" t="s">
+      <c r="T10" s="46" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A11" s="16">
+      <c r="A11" s="17">
         <v>4</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="22">
         <v>43491</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28" t="s">
+      <c r="D11" s="28"/>
+      <c r="E11" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29" t="s">
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A12" s="16">
+      <c r="A12" s="17">
         <v>5</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="22">
         <v>43492</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28" t="s">
+      <c r="D12" s="28"/>
+      <c r="E12" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
     </row>
     <row r="13" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A13" s="16">
+      <c r="A13" s="17">
         <v>6</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="22">
         <v>43493</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
     </row>
     <row r="14" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A14" s="16">
+      <c r="A14" s="17">
         <v>7</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="22">
         <v>43494</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
     </row>
     <row r="15" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A15" s="16">
+      <c r="A15" s="17">
         <v>8</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="22">
         <v>43495</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
     </row>
     <row r="16" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A16" s="16">
+      <c r="A16" s="17">
         <v>9</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="22">
         <v>43496</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
     </row>
     <row r="17" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A17" s="16">
+      <c r="A17" s="17">
         <v>10</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="22">
         <v>43497</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
     </row>
     <row r="18" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A18" s="16">
+      <c r="A18" s="17">
         <v>11</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="22">
         <v>43498</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
     </row>
     <row r="19" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A19" s="16">
+      <c r="A19" s="17">
         <v>12</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="22">
         <v>43499</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
     </row>
     <row r="20" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A20" s="16">
+      <c r="A20" s="17">
         <v>13</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="22">
         <v>43500</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
     </row>
     <row r="21" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A21" s="16">
+      <c r="A21" s="17">
         <v>14</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="22">
         <v>43501</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
     </row>
     <row r="22" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A22" s="16">
+      <c r="A22" s="17">
         <v>15</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="22">
         <v>43502</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
     </row>
     <row r="23" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A23" s="16">
+      <c r="A23" s="17">
         <v>16</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="22">
         <v>43503</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
     </row>
     <row r="24" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A24" s="16">
+      <c r="A24" s="17">
         <v>17</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="22">
         <v>43504</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
     </row>
     <row r="25" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A25" s="16">
+      <c r="A25" s="17">
         <v>18</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="22">
         <v>43505</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
     </row>
     <row r="26" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A26" s="16">
+      <c r="A26" s="17">
         <v>19</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="22">
         <v>43506</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
     </row>
     <row r="27" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A27" s="16">
+      <c r="A27" s="17">
         <v>20</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="22">
         <v>43507</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
     </row>
     <row r="28" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A28" s="16">
+      <c r="A28" s="17">
         <v>21</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="22">
         <v>43508</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
     </row>
     <row r="29" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A29" s="16">
+      <c r="A29" s="17">
         <v>22</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="22">
         <v>43509</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
     </row>
     <row r="30" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A30" s="16">
+      <c r="A30" s="17">
         <v>23</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="22">
         <v>43510</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="31" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A31" s="16">
+      <c r="A31" s="17">
         <v>24</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="22">
         <v>43511</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A32" s="16">
+      <c r="A32" s="17">
         <v>25</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="22">
         <v>43512</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
     </row>
     <row r="33" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A33" s="16">
+      <c r="A33" s="17">
         <v>26</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="22">
         <v>43513</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
     </row>
     <row r="34" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A34" s="16">
+      <c r="A34" s="17">
         <v>27</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="22">
         <v>43514</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
     </row>
     <row r="35" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A35" s="16">
+      <c r="A35" s="17">
         <v>28</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="22">
         <v>43515</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
     </row>
     <row r="36" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A36" s="16">
+      <c r="A36" s="17">
         <v>29</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="22">
         <v>43516</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
     </row>
     <row r="37" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A37" s="16">
+      <c r="A37" s="17">
         <v>30</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="22">
         <v>43517</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
     </row>
     <row r="38" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A38" s="16">
+      <c r="A38" s="17">
         <v>31</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="22">
         <v>43518</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
     </row>
     <row r="39" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A39" s="16">
+      <c r="A39" s="17">
         <v>32</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B39" s="22">
         <v>43519</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
     </row>
     <row r="40" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A40" s="16">
+      <c r="A40" s="17">
         <v>33</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="22">
         <v>43520</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
     </row>
     <row r="41" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A41" s="16">
+      <c r="A41" s="17">
         <v>34</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B41" s="22">
         <v>43521</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
     </row>
     <row r="42" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A42" s="16">
+      <c r="A42" s="17">
         <v>35</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="22">
         <v>43522</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
     </row>
     <row r="43" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A43" s="16">
+      <c r="A43" s="17">
         <v>36</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B43" s="22">
         <v>43523</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="31"/>
+      <c r="T43" s="31"/>
     </row>
     <row r="44" ht="27.95" customHeight="1" spans="1:20">
-      <c r="A44" s="31">
+      <c r="A44" s="49">
         <v>37</v>
       </c>
-      <c r="B44" s="32">
+      <c r="B44" s="50">
         <v>43524</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="43"/>
-      <c r="T44" s="44"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="43"/>
     </row>
   </sheetData>
   <sheetProtection password="CF7A" sheet="1" selectLockedCells="1" objects="1" scenarios="1"/>
@@ -3345,4 +3422,2291 @@
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T132"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="9" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="9.87272727272727" customWidth="1"/>
+    <col min="3" max="3" width="5.5" customWidth="1"/>
+    <col min="4" max="4" width="5.25454545454545" customWidth="1"/>
+    <col min="5" max="5" width="6.72727272727273" customWidth="1"/>
+    <col min="6" max="6" width="7.27272727272727" customWidth="1"/>
+    <col min="7" max="7" width="11.1181818181818" customWidth="1"/>
+    <col min="8" max="8" width="10.8" customWidth="1"/>
+    <col min="9" max="11" width="9.62727272727273" customWidth="1"/>
+    <col min="12" max="12" width="8.55454545454545" customWidth="1"/>
+    <col min="13" max="13" width="12.1909090909091" customWidth="1"/>
+    <col min="14" max="18" width="9.62727272727273" customWidth="1"/>
+    <col min="19" max="19" width="6.25454545454545" customWidth="1"/>
+    <col min="20" max="20" width="13.1272727272727" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.75"/>
+    <row r="2" ht="21.95" customHeight="1" spans="1:20">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6">
+        <v>4</v>
+      </c>
+      <c r="I2" s="6">
+        <v>5</v>
+      </c>
+      <c r="J2" s="6">
+        <v>6</v>
+      </c>
+      <c r="K2" s="6">
+        <v>7</v>
+      </c>
+      <c r="L2" s="6">
+        <v>8</v>
+      </c>
+      <c r="M2" s="6">
+        <v>9</v>
+      </c>
+      <c r="N2" s="6">
+        <v>10</v>
+      </c>
+      <c r="O2" s="6">
+        <v>11</v>
+      </c>
+      <c r="P2" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>13</v>
+      </c>
+      <c r="R2" s="6">
+        <v>14</v>
+      </c>
+      <c r="S2" s="6">
+        <v>15</v>
+      </c>
+      <c r="T2" s="37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="21.95" customHeight="1" spans="1:20">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="21.95" customHeight="1" spans="1:20">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" ht="21.95" customHeight="1" spans="1:20">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+    </row>
+    <row r="6" ht="21.95" customHeight="1" spans="1:20">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+    </row>
+    <row r="7" ht="21.95" customHeight="1" spans="1:20">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T7" s="39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="21.95" customHeight="1" spans="1:20">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="41"/>
+    </row>
+    <row r="10" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A10" s="17">
+        <v>1</v>
+      </c>
+      <c r="B10" s="22">
+        <v>43831</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="26"/>
+    </row>
+    <row r="11" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A11" s="17">
+        <v>2</v>
+      </c>
+      <c r="B11" s="22">
+        <v>43832</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="26"/>
+    </row>
+    <row r="12" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A12" s="17">
+        <v>3</v>
+      </c>
+      <c r="B12" s="22">
+        <v>43833</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="26"/>
+    </row>
+    <row r="13" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A13" s="17">
+        <v>4</v>
+      </c>
+      <c r="B13" s="22">
+        <v>43834</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+    </row>
+    <row r="14" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A14" s="17">
+        <v>5</v>
+      </c>
+      <c r="B14" s="22">
+        <v>43835</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+    </row>
+    <row r="15" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A15" s="17">
+        <v>6</v>
+      </c>
+      <c r="B15" s="22">
+        <v>43836</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+    </row>
+    <row r="16" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A16" s="17">
+        <v>7</v>
+      </c>
+      <c r="B16" s="22">
+        <v>43837</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+    </row>
+    <row r="17" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A17" s="17">
+        <v>8</v>
+      </c>
+      <c r="B17" s="22">
+        <v>43838</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+    </row>
+    <row r="18" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A18" s="17">
+        <v>9</v>
+      </c>
+      <c r="B18" s="22">
+        <v>43839</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+    </row>
+    <row r="19" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A19" s="17">
+        <v>10</v>
+      </c>
+      <c r="B19" s="22">
+        <v>43840</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+    </row>
+    <row r="20" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A20" s="17">
+        <v>11</v>
+      </c>
+      <c r="B20" s="22">
+        <v>43841</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+    </row>
+    <row r="21" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A21" s="17">
+        <v>12</v>
+      </c>
+      <c r="B21" s="22">
+        <v>43842</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+    </row>
+    <row r="22" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A22" s="17">
+        <v>13</v>
+      </c>
+      <c r="B22" s="22">
+        <v>43843</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+    </row>
+    <row r="23" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A23" s="17">
+        <v>14</v>
+      </c>
+      <c r="B23" s="22">
+        <v>43844</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+    </row>
+    <row r="24" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A24" s="17">
+        <v>15</v>
+      </c>
+      <c r="B24" s="22">
+        <v>43845</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+    </row>
+    <row r="25" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A25" s="17">
+        <v>16</v>
+      </c>
+      <c r="B25" s="22">
+        <v>43846</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+    </row>
+    <row r="26" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A26" s="17">
+        <v>17</v>
+      </c>
+      <c r="B26" s="22">
+        <v>43847</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+    </row>
+    <row r="27" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A27" s="17">
+        <v>18</v>
+      </c>
+      <c r="B27" s="22">
+        <v>43848</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+    </row>
+    <row r="28" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A28" s="17">
+        <v>19</v>
+      </c>
+      <c r="B28" s="22">
+        <v>43849</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+    </row>
+    <row r="29" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A29" s="17">
+        <v>20</v>
+      </c>
+      <c r="B29" s="22">
+        <v>43850</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="31"/>
+      <c r="H29" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+    </row>
+    <row r="30" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A30" s="17">
+        <v>21</v>
+      </c>
+      <c r="B30" s="22">
+        <v>43851</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+    </row>
+    <row r="31" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A31" s="17">
+        <v>22</v>
+      </c>
+      <c r="B31" s="22">
+        <v>43852</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+    </row>
+    <row r="32" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A32" s="17">
+        <v>23</v>
+      </c>
+      <c r="B32" s="22">
+        <v>43853</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A33" s="17">
+        <v>24</v>
+      </c>
+      <c r="B33" s="22">
+        <v>43854</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31">
+        <v>2030758453</v>
+      </c>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A34" s="17">
+        <v>25</v>
+      </c>
+      <c r="B34" s="22">
+        <v>43855</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+    </row>
+    <row r="35" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A35" s="17">
+        <v>26</v>
+      </c>
+      <c r="B35" s="22">
+        <v>43856</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+    </row>
+    <row r="36" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A36" s="17">
+        <v>27</v>
+      </c>
+      <c r="B36" s="22">
+        <v>43857</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+    </row>
+    <row r="37" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A37" s="17">
+        <v>28</v>
+      </c>
+      <c r="B37" s="22">
+        <v>43858</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+    </row>
+    <row r="38" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A38" s="17">
+        <v>29</v>
+      </c>
+      <c r="B38" s="22">
+        <v>43859</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+    </row>
+    <row r="39" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A39" s="17">
+        <v>30</v>
+      </c>
+      <c r="B39" s="22">
+        <v>43860</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+    </row>
+    <row r="40" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A40" s="17">
+        <v>31</v>
+      </c>
+      <c r="B40" s="22">
+        <v>43861</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+    </row>
+    <row r="41" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A41" s="17">
+        <v>32</v>
+      </c>
+      <c r="B41" s="22">
+        <v>43862</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="20"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+    </row>
+    <row r="42" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A42" s="17">
+        <v>33</v>
+      </c>
+      <c r="B42" s="22">
+        <v>43863</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
+    </row>
+    <row r="43" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A43" s="17">
+        <v>34</v>
+      </c>
+      <c r="B43" s="22">
+        <v>43864</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="20"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="31"/>
+      <c r="T43" s="31"/>
+    </row>
+    <row r="44" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A44" s="17">
+        <v>35</v>
+      </c>
+      <c r="B44" s="22">
+        <v>43865</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="20"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="31"/>
+    </row>
+    <row r="45" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A45" s="17">
+        <v>36</v>
+      </c>
+      <c r="B45" s="22">
+        <v>43866</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="20"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+    </row>
+    <row r="46" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A46" s="17">
+        <v>37</v>
+      </c>
+      <c r="B46" s="22">
+        <v>43867</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="33"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="43"/>
+    </row>
+    <row r="47" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A47" s="17">
+        <v>38</v>
+      </c>
+      <c r="B47" s="22">
+        <v>43868</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="33"/>
+    </row>
+    <row r="48" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A48" s="17">
+        <v>39</v>
+      </c>
+      <c r="B48" s="22">
+        <v>43869</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="33"/>
+    </row>
+    <row r="49" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A49" s="17">
+        <v>40</v>
+      </c>
+      <c r="B49" s="22">
+        <v>43870</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="33"/>
+    </row>
+    <row r="50" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A50" s="17">
+        <v>41</v>
+      </c>
+      <c r="B50" s="22">
+        <v>43871</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A51" s="17">
+        <v>42</v>
+      </c>
+      <c r="B51" s="22">
+        <v>43872</v>
+      </c>
+    </row>
+    <row r="52" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A52" s="17">
+        <v>43</v>
+      </c>
+      <c r="B52" s="22">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="53" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A53" s="17">
+        <v>44</v>
+      </c>
+      <c r="B53" s="22">
+        <v>43874</v>
+      </c>
+    </row>
+    <row r="54" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A54" s="17">
+        <v>45</v>
+      </c>
+      <c r="B54" s="22">
+        <v>43875</v>
+      </c>
+    </row>
+    <row r="55" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A55" s="17">
+        <v>46</v>
+      </c>
+      <c r="B55" s="22">
+        <v>43876</v>
+      </c>
+    </row>
+    <row r="56" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A56" s="17">
+        <v>47</v>
+      </c>
+      <c r="B56" s="22">
+        <v>43877</v>
+      </c>
+    </row>
+    <row r="57" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A57" s="17">
+        <v>48</v>
+      </c>
+      <c r="B57" s="22">
+        <v>43878</v>
+      </c>
+    </row>
+    <row r="58" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A58" s="17">
+        <v>49</v>
+      </c>
+      <c r="B58" s="22">
+        <v>43879</v>
+      </c>
+    </row>
+    <row r="59" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A59" s="17">
+        <v>50</v>
+      </c>
+      <c r="B59" s="22">
+        <v>43880</v>
+      </c>
+    </row>
+    <row r="60" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A60" s="17">
+        <v>51</v>
+      </c>
+      <c r="B60" s="22">
+        <v>43881</v>
+      </c>
+    </row>
+    <row r="61" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A61" s="17">
+        <v>52</v>
+      </c>
+      <c r="B61" s="22">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="62" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A62" s="17">
+        <v>53</v>
+      </c>
+      <c r="B62" s="22">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="63" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A63" s="17">
+        <v>54</v>
+      </c>
+      <c r="B63" s="22">
+        <v>43884</v>
+      </c>
+    </row>
+    <row r="64" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A64" s="17">
+        <v>55</v>
+      </c>
+      <c r="B64" s="22">
+        <v>43885</v>
+      </c>
+    </row>
+    <row r="65" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A65" s="17">
+        <v>56</v>
+      </c>
+      <c r="B65" s="22">
+        <v>43886</v>
+      </c>
+    </row>
+    <row r="66" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A66" s="17">
+        <v>57</v>
+      </c>
+      <c r="B66" s="22">
+        <v>43887</v>
+      </c>
+    </row>
+    <row r="67" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A67" s="17">
+        <v>58</v>
+      </c>
+      <c r="B67" s="22">
+        <v>43888</v>
+      </c>
+    </row>
+    <row r="68" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A68" s="17">
+        <v>59</v>
+      </c>
+      <c r="B68" s="22">
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="69" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A69" s="17">
+        <v>60</v>
+      </c>
+      <c r="B69" s="22">
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="70" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A70" s="17">
+        <v>61</v>
+      </c>
+      <c r="B70" s="22">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="71" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A71" s="17">
+        <v>62</v>
+      </c>
+      <c r="B71" s="22">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="72" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A72" s="17">
+        <v>63</v>
+      </c>
+      <c r="B72" s="22">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="73" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A73" s="17">
+        <v>64</v>
+      </c>
+      <c r="B73" s="22">
+        <v>43894</v>
+      </c>
+    </row>
+    <row r="74" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A74" s="17">
+        <v>65</v>
+      </c>
+      <c r="B74" s="22">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="75" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A75" s="17">
+        <v>66</v>
+      </c>
+      <c r="B75" s="22">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="76" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A76" s="17">
+        <v>67</v>
+      </c>
+      <c r="B76" s="22">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="77" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A77" s="17">
+        <v>68</v>
+      </c>
+      <c r="B77" s="22">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="78" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A78" s="17">
+        <v>69</v>
+      </c>
+      <c r="B78" s="22">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="79" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A79" s="17">
+        <v>70</v>
+      </c>
+      <c r="B79" s="22">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="80" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A80" s="17">
+        <v>71</v>
+      </c>
+      <c r="B80" s="22">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="81" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A81" s="17">
+        <v>72</v>
+      </c>
+      <c r="B81" s="22">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="82" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A82" s="17">
+        <v>73</v>
+      </c>
+      <c r="B82" s="22">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="83" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A83" s="17">
+        <v>74</v>
+      </c>
+      <c r="B83" s="22">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="84" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A84" s="17">
+        <v>75</v>
+      </c>
+      <c r="B84" s="22">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="85" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A85" s="17">
+        <v>76</v>
+      </c>
+      <c r="B85" s="22">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="86" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A86" s="17">
+        <v>77</v>
+      </c>
+      <c r="B86" s="22">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="87" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A87" s="17">
+        <v>78</v>
+      </c>
+      <c r="B87" s="22">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="88" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A88" s="17">
+        <v>79</v>
+      </c>
+      <c r="B88" s="22">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="89" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A89" s="17">
+        <v>80</v>
+      </c>
+      <c r="B89" s="22">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="90" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A90" s="17">
+        <v>81</v>
+      </c>
+      <c r="B90" s="22">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="91" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A91" s="17">
+        <v>82</v>
+      </c>
+      <c r="B91" s="22">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="92" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A92" s="17">
+        <v>83</v>
+      </c>
+      <c r="B92" s="22">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="93" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A93" s="17">
+        <v>84</v>
+      </c>
+      <c r="B93" s="22">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="94" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A94" s="17">
+        <v>85</v>
+      </c>
+      <c r="B94" s="22">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="95" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A95" s="17">
+        <v>86</v>
+      </c>
+      <c r="B95" s="22">
+        <v>43916</v>
+      </c>
+    </row>
+    <row r="96" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A96" s="17">
+        <v>87</v>
+      </c>
+      <c r="B96" s="22">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="97" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A97" s="17">
+        <v>88</v>
+      </c>
+      <c r="B97" s="22">
+        <v>43918</v>
+      </c>
+    </row>
+    <row r="98" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A98" s="17">
+        <v>89</v>
+      </c>
+      <c r="B98" s="22">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="99" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A99" s="17">
+        <v>90</v>
+      </c>
+      <c r="B99" s="22">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="100" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A100" s="17">
+        <v>91</v>
+      </c>
+      <c r="B100" s="22">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="101" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A101" s="17">
+        <v>92</v>
+      </c>
+      <c r="B101" s="22">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="102" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A102" s="17">
+        <v>93</v>
+      </c>
+      <c r="B102" s="22">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="103" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A103" s="17">
+        <v>94</v>
+      </c>
+      <c r="B103" s="22">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="104" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A104" s="17">
+        <v>95</v>
+      </c>
+      <c r="B104" s="22">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="105" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A105" s="17">
+        <v>96</v>
+      </c>
+      <c r="B105" s="22">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="106" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A106" s="17">
+        <v>97</v>
+      </c>
+      <c r="B106" s="22">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="107" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A107" s="17">
+        <v>98</v>
+      </c>
+      <c r="B107" s="22">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="108" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A108" s="17">
+        <v>99</v>
+      </c>
+      <c r="B108" s="22">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="109" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A109" s="17">
+        <v>100</v>
+      </c>
+      <c r="B109" s="22">
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="110" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A110" s="17">
+        <v>101</v>
+      </c>
+      <c r="B110" s="22">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="111" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A111" s="17">
+        <v>102</v>
+      </c>
+      <c r="B111" s="22">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="112" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A112" s="17">
+        <v>103</v>
+      </c>
+      <c r="B112" s="22">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="113" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A113" s="17">
+        <v>104</v>
+      </c>
+      <c r="B113" s="22">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="114" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A114" s="17">
+        <v>105</v>
+      </c>
+      <c r="B114" s="22">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="115" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A115" s="17">
+        <v>106</v>
+      </c>
+      <c r="B115" s="22">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="116" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A116" s="17">
+        <v>107</v>
+      </c>
+      <c r="B116" s="22">
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="117" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A117" s="17">
+        <v>108</v>
+      </c>
+      <c r="B117" s="22">
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="118" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A118" s="17">
+        <v>109</v>
+      </c>
+      <c r="B118" s="22">
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="119" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A119" s="17">
+        <v>110</v>
+      </c>
+      <c r="B119" s="22">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="120" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A120" s="17">
+        <v>111</v>
+      </c>
+      <c r="B120" s="22">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="121" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A121" s="17">
+        <v>112</v>
+      </c>
+      <c r="B121" s="22">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="122" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A122" s="17">
+        <v>113</v>
+      </c>
+      <c r="B122" s="22">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="123" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A123" s="17">
+        <v>114</v>
+      </c>
+      <c r="B123" s="22">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="124" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A124" s="17">
+        <v>115</v>
+      </c>
+      <c r="B124" s="22">
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="125" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A125" s="17">
+        <v>116</v>
+      </c>
+      <c r="B125" s="22">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="126" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A126" s="17">
+        <v>117</v>
+      </c>
+      <c r="B126" s="22">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="127" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A127" s="17">
+        <v>118</v>
+      </c>
+      <c r="B127" s="22">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="128" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A128" s="17">
+        <v>119</v>
+      </c>
+      <c r="B128" s="22">
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="129" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A129" s="17">
+        <v>120</v>
+      </c>
+      <c r="B129" s="22">
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="130" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A130" s="17">
+        <v>121</v>
+      </c>
+      <c r="B130" s="22">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="131" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A131" s="17">
+        <v>122</v>
+      </c>
+      <c r="B131" s="22">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="132" ht="27.95" customHeight="1" spans="1:2">
+      <c r="A132" s="17">
+        <v>123</v>
+      </c>
+      <c r="B132" s="22">
+        <v>43953</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <mergeCells count="48">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:T9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="F5:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
+  <cols>
+    <col min="6" max="6" width="10.9090909090909" customWidth="1"/>
+    <col min="7" max="7" width="13.7272727272727" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="6:6">
+      <c r="F5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="6:7">
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7">
+      <c r="F8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7">
+      <c r="F9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="6:6">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="6:7">
+      <c r="F11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7">
+      <c r="F12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7">
+      <c r="F13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="6:6">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="6:6">
+      <c r="F15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/每日生活时间安排.xlsx
+++ b/每日生活时间安排.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
   <si>
     <t xml:space="preserve">          
         时间
@@ -450,6 +450,12 @@
     <t>看电影</t>
   </si>
   <si>
+    <t>总结：书友会的学习，梦见自己的梦想。总觉得贵的就是好的，最好的就是自己能够用的。
+1.问一个比较好的问题：我能够怎么做
+2.关于QBQ，把所有的焦点都放在我能做的问题上，并包括我现在能做什么，今天我如何能扭转现状
+3.什么是真正的承担个人责任，完成自己目前最好的状态</t>
+  </si>
+  <si>
     <t>工作</t>
   </si>
   <si>
@@ -464,9 +470,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yy\-mm\-dd"/>
   </numFmts>
@@ -507,21 +513,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -537,6 +528,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -544,8 +558,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,68 +629,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,7 +644,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,7 +738,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,19 +768,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,49 +780,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,31 +804,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,37 +870,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,26 +1245,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1287,11 +1280,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1313,11 +1312,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1329,10 +1335,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1341,133 +1347,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1775,7 +1781,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3594,11 +3600,11 @@
   <dimension ref="A1:T375"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="9" topLeftCell="E49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="9" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K53" sqref="K53"/>
+      <selection pane="bottomRight" activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14"/>
@@ -4871,7 +4877,9 @@
       <c r="Q37" s="35"/>
       <c r="R37" s="35"/>
       <c r="S37" s="35"/>
-      <c r="T37" s="45"/>
+      <c r="T37" s="45" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="38" ht="27.95" customHeight="1" spans="1:20">
       <c r="A38" s="20">
@@ -14737,7 +14745,7 @@
   <sheetData>
     <row r="5" spans="6:6">
       <c r="F5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="6:7">
@@ -14769,7 +14777,7 @@
     </row>
     <row r="11" spans="6:7">
       <c r="F11" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
         <v>93</v>
@@ -14785,7 +14793,7 @@
     </row>
     <row r="13" spans="6:7">
       <c r="F13" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
         <v>95</v>
